--- a/dataset/loan_player_data/DataXLSX_Serie A.xlsx
+++ b/dataset/loan_player_data/DataXLSX_Serie A.xlsx
@@ -509,17 +509,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>430</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -562,17 +562,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>452</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>386</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -615,22 +615,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>305</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>224</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -774,22 +774,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>157</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>71'</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1357,22 +1357,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>87'</t>
+          <t>86'</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1516,12 +1516,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>87'</t>
+          <t>88'</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>292</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>65'</t>
+          <t>69'</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>118</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>86</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>68'</t>
+          <t>70'</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1940,12 +1940,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>214</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2046,12 +2046,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>126</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>74'</t>
+          <t>75'</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>274</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>189</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2682,12 +2682,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>193</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>157</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>86'</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2788,12 +2788,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>256</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>167</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>233</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>107</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3010,12 +3010,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>68'</t>
+          <t>75'</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>78'</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>74'</t>
+          <t>69'</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>88'</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>1</t>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>75'</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>48'</t>
+          <t>49'</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>76'</t>
+          <t>75'</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4325,12 +4325,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>70'</t>
+          <t>71'</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4537,17 +4537,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4696,22 +4696,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5279,22 +5279,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>258</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>155</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>77'</t>
+          <t>78'</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5809,12 +5809,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>770</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>586</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -6286,12 +6286,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>428</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>331</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6922,12 +6922,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>571</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>413</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7134,22 +7134,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>307</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7399,12 +7399,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>276</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7823,22 +7823,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>77'</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7929,12 +7929,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>726</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>561</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>77'</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -8035,12 +8035,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>710</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>533</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8209,7 +8209,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>71'</t>
+          <t>69'</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8300,12 +8300,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>229</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -8353,12 +8353,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>321</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>243</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>78'</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>309</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>71'</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>75'</t>
+          <t>73'</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8618,12 +8618,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>259</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>201</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>76'</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>72'</t>
+          <t>75'</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>75'</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8936,12 +8936,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>74'</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8989,12 +8989,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>933</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>709</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>74'</t>
+          <t>76'</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -9042,17 +9042,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>626</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>517</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9095,12 +9095,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>817</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>642</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>85'</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9360,22 +9360,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>397</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>331</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -9413,12 +9413,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>446</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>335</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -9466,12 +9466,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>342</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>253</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>77'</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>167</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>67'</t>
+          <t>66'</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>76'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>284</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>228</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>85'</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -10049,12 +10049,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10314,12 +10314,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>469</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>299</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>72'</t>
+          <t>78'</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -11374,17 +11374,17 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>688</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>494</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -12275,12 +12275,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>675</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>512</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -12487,17 +12487,17 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>413</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>324</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -12540,12 +12540,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>588</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -12593,12 +12593,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>369</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>279</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -13229,12 +13229,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>807</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13282,12 +13282,12 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>873</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>697</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -13335,17 +13335,17 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>664</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>482</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -13388,7 +13388,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>832</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>593</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -13494,17 +13494,17 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>643</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>532</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -13600,7 +13600,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>448</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -13653,12 +13653,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>454</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>366</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -13759,12 +13759,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>364</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>295</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -13827,7 +13827,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -14236,12 +14236,12 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>334</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>281</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>77'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -14289,12 +14289,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -14342,12 +14342,12 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>789</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>603</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14675,7 +14675,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>78'</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>531</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -15137,12 +15137,12 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>275</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>206</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>641</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -15508,12 +15508,12 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>609</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>418</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -15561,12 +15561,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>470</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>326</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -15576,7 +15576,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -15614,12 +15614,12 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>413</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>315</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -15720,12 +15720,12 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>618</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>473</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -15773,12 +15773,12 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>241</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -15826,12 +15826,12 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>420</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>307</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -15879,7 +15879,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>483</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -15889,12 +15889,12 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15932,12 +15932,12 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>379</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>277</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -15985,12 +15985,12 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -16038,12 +16038,12 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>346</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>427</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>85'</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -16689,7 +16689,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16742,7 +16742,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>86'</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16886,12 +16886,12 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>314</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -17007,7 +17007,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17045,12 +17045,12 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>283</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -17166,7 +17166,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17204,7 +17204,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>254</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>87'</t>
+          <t>88'</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17469,12 +17469,12 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>927</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>637</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -17537,7 +17537,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17628,12 +17628,12 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>650</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>469</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>588</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -17706,7 +17706,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>54.68</t>
+          <t>53.68</t>
         </is>
       </c>
     </row>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>77'</t>
+          <t>76'</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17840,12 +17840,12 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>443</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>279</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -18042,7 +18042,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -18052,17 +18052,17 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>303</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>197</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -18072,12 +18072,12 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>78.70</t>
+          <t>79.90</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>62.80</t>
+          <t>63.70</t>
         </is>
       </c>
     </row>
@@ -18211,12 +18211,12 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>306</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -18385,7 +18385,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>75'</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -18433,7 +18433,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>75'</t>
+          <t>71'</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
